--- a/wzl/docs/api文档.xlsx
+++ b/wzl/docs/api文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15915" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>API文档</t>
   </si>
@@ -68,6 +68,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>参考</t>
     </r>
     <r>
@@ -93,6 +100,51 @@
     </r>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>TableColumns</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>表格列 key 的取值</t>
+  </si>
+  <si>
+    <t>align</t>
+  </si>
+  <si>
+    <t>文本对齐方式</t>
+  </si>
+  <si>
+    <t>left'|'center'|'right'</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>列宽</t>
+  </si>
+  <si>
+    <t>string | number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>列头文本</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>sortable</t>
   </si>
   <si>
@@ -111,44 +163,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TableSort</t>
+      <t>TableColumnSortable</t>
     </r>
   </si>
   <si>
-    <t>TableColumns</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>表格列 key 的取值</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>align</t>
-  </si>
-  <si>
-    <t>文本对齐方式</t>
-  </si>
-  <si>
-    <t>left'|'center'|'right'</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>列头文本</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>TableSort</t>
+    <t>TableColumnSortable</t>
   </si>
   <si>
     <t>orderBy</t>
@@ -157,7 +176,7 @@
     <t>当前排序规则</t>
   </si>
   <si>
-    <t>ascend'|'descend'</t>
+    <t>' | 'asc' | 'desc' | 'ASC' | 'DESC'</t>
   </si>
   <si>
     <t>sorter</t>
@@ -174,10 +193,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -218,6 +237,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -225,6 +276,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -233,54 +305,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +328,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -303,7 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,52 +375,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,25 +396,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,121 +546,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,49 +642,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -697,16 +683,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -728,10 +747,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,137 +759,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,13 +920,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" quotePrefix="1">
@@ -1232,17 +1248,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="41.25" customWidth="1"/>
     <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
   </cols>
@@ -1318,45 +1334,51 @@
         <v>17</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" ht="24" customHeight="1" spans="1:5">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" ht="24" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>5</v>
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:5">
@@ -1366,28 +1388,28 @@
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="1:5">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>10</v>
@@ -1395,13 +1417,13 @@
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:5">
       <c r="A11" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>14</v>
@@ -1411,70 +1433,85 @@
       </c>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:5">
-      <c r="A12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="A12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="1:5">
-      <c r="A13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="A13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:5">
-      <c r="A14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>10</v>
+      <c r="A14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" ht="24" customHeight="1" spans="1:5">
       <c r="A15" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="7" t="s">
         <v>38</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
